--- a/FUENTES-DE-DATOS/ASFI/SiglasEntidadesFinancieras/SIGLAS-IFD.xlsx
+++ b/FUENTES-DE-DATOS/ASFI/SiglasEntidadesFinancieras/SIGLAS-IFD.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\INVESTIGACION-PARA-OBTENER-EL-GRADO-DE-LICENCIATURA-EN-INGENIERIA-FINANCIERA-UMSS\FUENTES-DE-DATOS\ASFI\siglas-entidades-financieras\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\INVESTIGACION-PARA-OBTENER-EL-GRADO-DE-LICENCIATURA-EN-INGENIERIA-FINANCIERA-UMSS\FUENTES-DE-DATOS\ASFI\SiglasEntidadesFinancieras\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{771756F6-5D4C-4AD0-AAD8-034C04E94B3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95AD20FD-0C12-4C40-BB91-75AD1C5DC708}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1905" yWindow="1905" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>SIGLA</t>
   </si>
@@ -36,7 +36,55 @@
     <t>ICI</t>
   </si>
   <si>
-    <t>Institución Financiera de Desarrollo CIDRE IFD</t>
+    <t>ICR</t>
+  </si>
+  <si>
+    <t>IDI</t>
+  </si>
+  <si>
+    <t>IFO</t>
+  </si>
+  <si>
+    <t>IFU</t>
+  </si>
+  <si>
+    <t>IID</t>
+  </si>
+  <si>
+    <t>IIM</t>
+  </si>
+  <si>
+    <t>IPM</t>
+  </si>
+  <si>
+    <t>ISA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Institución Financiera de Desarrollo CIDRE </t>
+  </si>
+  <si>
+    <t>Institución Financiera de Desarrollo CRECER</t>
+  </si>
+  <si>
+    <t>Institución Financiera de Desarrollo DIACONÍA FRID</t>
+  </si>
+  <si>
+    <t>Institución Financiera de Desarrollo FONDECO</t>
+  </si>
+  <si>
+    <t>Institución Financiera de Desarrollo FUBODE</t>
+  </si>
+  <si>
+    <t>Institución Financiera de Desarrollo IDEPRO</t>
+  </si>
+  <si>
+    <t>Institución Financiera de Desarrollo IMPRO</t>
+  </si>
+  <si>
+    <t>Institución Financiera de Desarrollo Fundación PRO MUJER</t>
+  </si>
+  <si>
+    <t>Institución Financiera de Desarrollo Sembrar SARTAWI</t>
   </si>
 </sst>
 </file>
@@ -354,10 +402,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -378,7 +426,71 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
